--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Hmmr</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.5384737695328</v>
+        <v>23.544642</v>
       </c>
       <c r="H2">
-        <v>23.5384737695328</v>
+        <v>70.633926</v>
       </c>
       <c r="I2">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J2">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.903879118021077</v>
+        <v>1.796303666666667</v>
       </c>
       <c r="N2">
-        <v>0.903879118021077</v>
+        <v>5.388911</v>
       </c>
       <c r="O2">
-        <v>0.09475740629235302</v>
+        <v>0.146106549954462</v>
       </c>
       <c r="P2">
-        <v>0.09475740629235302</v>
+        <v>0.146106549954462</v>
       </c>
       <c r="Q2">
-        <v>21.27593491036756</v>
+        <v>42.293326754954</v>
       </c>
       <c r="R2">
-        <v>21.27593491036756</v>
+        <v>380.639940794586</v>
       </c>
       <c r="S2">
-        <v>0.08368074656858061</v>
+        <v>0.1276470099152365</v>
       </c>
       <c r="T2">
-        <v>0.08368074656858061</v>
+        <v>0.1276470099152365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.5384737695328</v>
+        <v>23.544642</v>
       </c>
       <c r="H3">
-        <v>23.5384737695328</v>
+        <v>70.633926</v>
       </c>
       <c r="I3">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J3">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.782243667476722</v>
+        <v>1.270604</v>
       </c>
       <c r="N3">
-        <v>0.782243667476722</v>
+        <v>3.811812</v>
       </c>
       <c r="O3">
-        <v>0.08200585624878172</v>
+        <v>0.1033475409772062</v>
       </c>
       <c r="P3">
-        <v>0.08200585624878172</v>
+        <v>0.1033475409772062</v>
       </c>
       <c r="Q3">
-        <v>18.41282204828396</v>
+        <v>29.915916303768</v>
       </c>
       <c r="R3">
-        <v>18.41282204828396</v>
+        <v>269.243246733912</v>
       </c>
       <c r="S3">
-        <v>0.07241978798703726</v>
+        <v>0.09029030246723638</v>
       </c>
       <c r="T3">
-        <v>0.07241978798703726</v>
+        <v>0.09029030246723638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.5384737695328</v>
+        <v>23.544642</v>
       </c>
       <c r="H4">
-        <v>23.5384737695328</v>
+        <v>70.633926</v>
       </c>
       <c r="I4">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J4">
-        <v>0.88310507687813</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.85275289069323</v>
+        <v>1.100567333333333</v>
       </c>
       <c r="N4">
-        <v>7.85275289069323</v>
+        <v>3.301702</v>
       </c>
       <c r="O4">
-        <v>0.8232367374588653</v>
+        <v>0.08951721195576376</v>
       </c>
       <c r="P4">
-        <v>0.8232367374588653</v>
+        <v>0.08951721195576376</v>
       </c>
       <c r="Q4">
-        <v>184.8418179362055</v>
+        <v>25.912463860228</v>
       </c>
       <c r="R4">
-        <v>184.8418179362055</v>
+        <v>233.212174742052</v>
       </c>
       <c r="S4">
-        <v>0.7270045423225121</v>
+        <v>0.07820733872412367</v>
       </c>
       <c r="T4">
-        <v>0.7270045423225121</v>
+        <v>0.07820733872412367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.11574256986794</v>
+        <v>23.544642</v>
       </c>
       <c r="H5">
-        <v>3.11574256986794</v>
+        <v>70.633926</v>
       </c>
       <c r="I5">
-        <v>0.11689492312187</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="J5">
-        <v>0.11689492312187</v>
+        <v>0.8736569986425735</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.903879118021077</v>
+        <v>8.127002333333333</v>
       </c>
       <c r="N5">
-        <v>0.903879118021077</v>
+        <v>24.381007</v>
       </c>
       <c r="O5">
-        <v>0.09475740629235302</v>
+        <v>0.6610286971125681</v>
       </c>
       <c r="P5">
-        <v>0.09475740629235302</v>
+        <v>0.6610286971125681</v>
       </c>
       <c r="Q5">
-        <v>2.816254646032958</v>
+        <v>191.347360471498</v>
       </c>
       <c r="R5">
-        <v>2.816254646032958</v>
+        <v>1722.126244243482</v>
       </c>
       <c r="S5">
-        <v>0.0110766597237724</v>
+        <v>0.577512347535977</v>
       </c>
       <c r="T5">
-        <v>0.0110766597237724</v>
+        <v>0.577512347535977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.11574256986794</v>
+        <v>0.041467</v>
       </c>
       <c r="H6">
-        <v>3.11574256986794</v>
+        <v>0.124401</v>
       </c>
       <c r="I6">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="J6">
-        <v>0.11689492312187</v>
+        <v>0.001538691255645832</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.782243667476722</v>
+        <v>1.796303666666667</v>
       </c>
       <c r="N6">
-        <v>0.782243667476722</v>
+        <v>5.388911</v>
       </c>
       <c r="O6">
-        <v>0.08200585624878172</v>
+        <v>0.146106549954462</v>
       </c>
       <c r="P6">
-        <v>0.08200585624878172</v>
+        <v>0.146106549954462</v>
       </c>
       <c r="Q6">
-        <v>2.437269894766844</v>
+        <v>0.07448732414566667</v>
       </c>
       <c r="R6">
-        <v>2.437269894766844</v>
+        <v>0.6703859173110001</v>
       </c>
       <c r="S6">
-        <v>0.009586068261744459</v>
+        <v>0.0002248128708075115</v>
       </c>
       <c r="T6">
-        <v>0.009586068261744459</v>
+        <v>0.0002248128708075115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.041467</v>
+      </c>
+      <c r="H7">
+        <v>0.124401</v>
+      </c>
+      <c r="I7">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="J7">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.270604</v>
+      </c>
+      <c r="N7">
+        <v>3.811812</v>
+      </c>
+      <c r="O7">
+        <v>0.1033475409772062</v>
+      </c>
+      <c r="P7">
+        <v>0.1033475409772062</v>
+      </c>
+      <c r="Q7">
+        <v>0.05268813606799999</v>
+      </c>
+      <c r="R7">
+        <v>0.474193224612</v>
+      </c>
+      <c r="S7">
+        <v>0.0001590199575941265</v>
+      </c>
+      <c r="T7">
+        <v>0.0001590199575941265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.041467</v>
+      </c>
+      <c r="H8">
+        <v>0.124401</v>
+      </c>
+      <c r="I8">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="J8">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.100567333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.301702</v>
+      </c>
+      <c r="O8">
+        <v>0.08951721195576376</v>
+      </c>
+      <c r="P8">
+        <v>0.08951721195576376</v>
+      </c>
+      <c r="Q8">
+        <v>0.04563722561133333</v>
+      </c>
+      <c r="R8">
+        <v>0.4107350305019999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001377393512661282</v>
+      </c>
+      <c r="T8">
+        <v>0.0001377393512661282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.041467</v>
+      </c>
+      <c r="H9">
+        <v>0.124401</v>
+      </c>
+      <c r="I9">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="J9">
+        <v>0.001538691255645832</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.127002333333333</v>
+      </c>
+      <c r="N9">
+        <v>24.381007</v>
+      </c>
+      <c r="O9">
+        <v>0.6610286971125681</v>
+      </c>
+      <c r="P9">
+        <v>0.6610286971125681</v>
+      </c>
+      <c r="Q9">
+        <v>0.3370024057563333</v>
+      </c>
+      <c r="R9">
+        <v>3.033021651807</v>
+      </c>
+      <c r="S9">
+        <v>0.001017119075978066</v>
+      </c>
+      <c r="T9">
+        <v>0.001017119075978066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.363417</v>
+      </c>
+      <c r="H10">
+        <v>10.090251</v>
+      </c>
+      <c r="I10">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J10">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.796303666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.388911</v>
+      </c>
+      <c r="O10">
+        <v>0.146106549954462</v>
+      </c>
+      <c r="P10">
+        <v>0.146106549954462</v>
+      </c>
+      <c r="Q10">
+        <v>6.041718289628999</v>
+      </c>
+      <c r="R10">
+        <v>54.375464606661</v>
+      </c>
+      <c r="S10">
+        <v>0.01823472716841797</v>
+      </c>
+      <c r="T10">
+        <v>0.01823472716841797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.363417</v>
+      </c>
+      <c r="H11">
+        <v>10.090251</v>
+      </c>
+      <c r="I11">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J11">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.270604</v>
+      </c>
+      <c r="N11">
+        <v>3.811812</v>
+      </c>
+      <c r="O11">
+        <v>0.1033475409772062</v>
+      </c>
+      <c r="P11">
+        <v>0.1033475409772062</v>
+      </c>
+      <c r="Q11">
+        <v>4.273571093867999</v>
+      </c>
+      <c r="R11">
+        <v>38.46213984481199</v>
+      </c>
+      <c r="S11">
+        <v>0.01289821855237573</v>
+      </c>
+      <c r="T11">
+        <v>0.01289821855237573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.11574256986794</v>
-      </c>
-      <c r="H7">
-        <v>3.11574256986794</v>
-      </c>
-      <c r="I7">
-        <v>0.11689492312187</v>
-      </c>
-      <c r="J7">
-        <v>0.11689492312187</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.85275289069323</v>
-      </c>
-      <c r="N7">
-        <v>7.85275289069323</v>
-      </c>
-      <c r="O7">
-        <v>0.8232367374588653</v>
-      </c>
-      <c r="P7">
-        <v>0.8232367374588653</v>
-      </c>
-      <c r="Q7">
-        <v>24.46715647218642</v>
-      </c>
-      <c r="R7">
-        <v>24.46715647218642</v>
-      </c>
-      <c r="S7">
-        <v>0.0962321951363531</v>
-      </c>
-      <c r="T7">
-        <v>0.0962321951363531</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.363417</v>
+      </c>
+      <c r="H12">
+        <v>10.090251</v>
+      </c>
+      <c r="I12">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J12">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.100567333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.301702</v>
+      </c>
+      <c r="O12">
+        <v>0.08951721195576376</v>
+      </c>
+      <c r="P12">
+        <v>0.08951721195576376</v>
+      </c>
+      <c r="Q12">
+        <v>3.701666878577999</v>
+      </c>
+      <c r="R12">
+        <v>33.31500190720199</v>
+      </c>
+      <c r="S12">
+        <v>0.01117213388037396</v>
+      </c>
+      <c r="T12">
+        <v>0.01117213388037396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.363417</v>
+      </c>
+      <c r="H13">
+        <v>10.090251</v>
+      </c>
+      <c r="I13">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="J13">
+        <v>0.1248043101017806</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.127002333333333</v>
+      </c>
+      <c r="N13">
+        <v>24.381007</v>
+      </c>
+      <c r="O13">
+        <v>0.6610286971125681</v>
+      </c>
+      <c r="P13">
+        <v>0.6610286971125681</v>
+      </c>
+      <c r="Q13">
+        <v>27.334497806973</v>
+      </c>
+      <c r="R13">
+        <v>246.010480262757</v>
+      </c>
+      <c r="S13">
+        <v>0.08249923050061296</v>
+      </c>
+      <c r="T13">
+        <v>0.08249923050061296</v>
       </c>
     </row>
   </sheetData>
